--- a/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B039B5A6-B1D7-45F1-996B-C4FA12B36CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1CEB4C-B03D-4CE4-BDEF-41FEC6A7EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6AE4476-961C-46FA-A71A-501C580EB08E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{425707BF-19F6-4E1F-AD73-BAA223BA6CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>96,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,10 +110,10 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -155,31 +155,37 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>99,17%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>97,7%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
+    <t>98,9%</t>
+  </si>
+  <si>
     <t>Granada</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -188,709 +194,733 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>98,02%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD63CA-5771-43CD-863F-97B250493423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE2DC42-96DE-4AB9-BE9A-9FB20FB86D53}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -1802,10 +1832,10 @@
         <v>287659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1817,10 +1847,10 @@
         <v>524196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -1879,7 +1909,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1891,13 +1921,13 @@
         <v>952</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1912,7 +1942,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1921,13 +1951,13 @@
         <v>952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,10 +1972,10 @@
         <v>266579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1960,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -1972,10 +2002,10 @@
         <v>566113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -2034,7 +2064,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2046,13 +2076,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2061,13 +2091,13 @@
         <v>1843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2076,13 +2106,13 @@
         <v>2778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,10 +2127,10 @@
         <v>169343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2112,10 +2142,10 @@
         <v>172063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2127,13 +2157,13 @@
         <v>341406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2219,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2207,7 +2237,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2216,13 +2246,13 @@
         <v>1187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2231,13 +2261,13 @@
         <v>1187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2267,10 +2297,10 @@
         <v>203301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -2282,10 +2312,10 @@
         <v>392571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -2344,7 +2374,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2386,13 @@
         <v>885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2371,13 +2401,13 @@
         <v>3040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2386,13 +2416,13 @@
         <v>3925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,10 +2437,10 @@
         <v>463440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -2422,13 +2452,13 @@
         <v>536328</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M23" s="7">
         <v>974</v>
@@ -2437,10 +2467,10 @@
         <v>999767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>95</v>
@@ -2514,7 +2544,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>98</v>
@@ -2544,10 +2574,10 @@
         <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2592,13 @@
         <v>521887</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
         <v>560</v>
@@ -2577,13 +2607,13 @@
         <v>586881</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>1078</v>
@@ -2592,13 +2622,13 @@
         <v>1108767</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2696,13 @@
         <v>8367</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -2681,13 +2711,13 @@
         <v>14810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -2696,13 +2726,13 @@
         <v>23177</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2747,13 @@
         <v>2446375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>2665</v>
@@ -2732,13 +2762,13 @@
         <v>2726127</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="M29" s="7">
         <v>5063</v>
@@ -2747,13 +2777,13 @@
         <v>5172502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,7 +2839,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2833,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155DF66-BD01-4ABB-B0C0-C0CFABDB83A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A29D3C-C68F-43C7-A34A-2D1B8FD2E894}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2850,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,39 +2985,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,39 +3030,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,39 +3075,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3139,13 @@
         <v>1996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3124,13 +3154,13 @@
         <v>1996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3193,7 @@
         <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3175,10 +3205,10 @@
         <v>841161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3249,13 +3279,13 @@
         <v>3894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3264,13 +3294,13 @@
         <v>2932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3279,13 +3309,13 @@
         <v>6826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3330,13 @@
         <v>289770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -3315,13 +3345,13 @@
         <v>325820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>587</v>
@@ -3330,13 +3360,13 @@
         <v>615590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3404,13 +3434,13 @@
         <v>5109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3422,10 +3452,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3437,10 +3467,10 @@
         <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3485,13 @@
         <v>558528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -3473,10 +3503,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3485,13 +3515,13 @@
         <v>1147646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3565,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3595,7 +3625,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3643,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -3643,7 +3673,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -3702,7 +3732,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3714,13 +3744,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3729,13 +3759,13 @@
         <v>6058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3744,13 +3774,13 @@
         <v>7000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,10 +3795,10 @@
         <v>249030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -3780,13 +3810,13 @@
         <v>258772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -3795,13 +3825,13 @@
         <v>507803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3872,10 +3902,10 @@
         <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3884,13 +3914,13 @@
         <v>1909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3899,13 +3929,13 @@
         <v>5933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3950,13 @@
         <v>571066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -3935,10 +3965,10 @@
         <v>623033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
@@ -3950,13 +3980,13 @@
         <v>1194100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4054,13 @@
         <v>4073</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4039,13 +4069,13 @@
         <v>3002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4054,13 +4084,13 @@
         <v>7075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4105,13 @@
         <v>629832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -4090,13 +4120,13 @@
         <v>699292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1223</v>
@@ -4105,13 +4135,13 @@
         <v>1329124</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4209,13 @@
         <v>18043</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -4194,13 +4224,13 @@
         <v>18832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -4209,13 +4239,13 @@
         <v>36875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4260,13 @@
         <v>2896615</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>2894</v>
@@ -4245,13 +4275,13 @@
         <v>3124556</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>5614</v>
@@ -4260,13 +4290,13 @@
         <v>6021172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,7 +4352,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A700CD-34E6-44CB-ADD8-779A9A36AB9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3631A57E-91D6-4A26-938A-BCA5308A991F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4363,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4470,13 +4500,13 @@
         <v>2058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4491,7 +4521,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4500,13 +4530,13 @@
         <v>2058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,10 +4551,10 @@
         <v>243160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4539,7 +4569,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4551,10 +4581,10 @@
         <v>489493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4625,13 +4655,13 @@
         <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4646,7 +4676,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4655,13 +4685,13 @@
         <v>1152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,10 +4706,10 @@
         <v>362013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4694,7 +4724,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4706,10 +4736,10 @@
         <v>755340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4780,13 +4810,13 @@
         <v>913</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4795,13 +4825,13 @@
         <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4810,13 +4840,13 @@
         <v>3278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4858,13 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>289593</v>
+        <v>289594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4846,10 +4876,10 @@
         <v>305399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4861,13 +4891,13 @@
         <v>594992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4909,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -4923,7 +4953,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4941,7 +4971,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4956,7 +4986,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4971,7 +5001,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +5019,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5004,7 +5034,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5019,7 +5049,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5078,7 +5108,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5096,7 +5126,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5111,7 +5141,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5126,7 +5156,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5174,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -5159,7 +5189,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5174,7 +5204,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -5233,7 +5263,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5266,7 +5296,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5281,7 +5311,7 @@
         <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5329,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5314,7 +5344,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5329,7 +5359,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5388,7 +5418,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5415,13 +5445,13 @@
         <v>3561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5430,13 +5460,13 @@
         <v>3561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5496,13 @@
         <v>483490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>844</v>
@@ -5481,13 +5511,13 @@
         <v>925797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5591,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5576,7 +5606,7 @@
         <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5591,7 +5621,7 @@
         <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5639,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5618,13 +5648,13 @@
         <v>635</v>
       </c>
       <c r="I26" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -5639,7 +5669,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -5669,7 +5699,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -5710,10 +5740,10 @@
         <v>4122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
@@ -5725,13 +5755,13 @@
         <v>5926</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5740,13 +5770,13 @@
         <v>10049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,16 +5788,16 @@
         <v>2526</v>
       </c>
       <c r="D29" s="7">
-        <v>2660212</v>
+        <v>2660211</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>2722</v>
@@ -5776,28 +5806,28 @@
         <v>2861389</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>5248</v>
       </c>
       <c r="N29" s="7">
-        <v>5521600</v>
+        <v>5521599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5839,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -5839,7 +5869,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -5853,7 +5883,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5877,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D20485-FE04-40EB-A922-D5C4E2BFC6D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C1391A-2AA2-404C-9B9E-27C898939832}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5894,7 +5924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6007,7 +6037,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6022,7 +6052,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6055,7 +6085,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6070,7 +6100,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6162,7 +6192,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6171,13 +6201,13 @@
         <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6186,13 +6216,13 @@
         <v>159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6240,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6222,10 +6252,10 @@
         <v>539935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -6237,10 +6267,10 @@
         <v>1047439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -6317,7 +6347,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6326,13 +6356,13 @@
         <v>616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6341,13 +6371,13 @@
         <v>616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6395,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -6377,10 +6407,10 @@
         <v>357630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -6392,10 +6422,10 @@
         <v>664963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -6454,7 +6484,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6472,7 +6502,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6487,7 +6517,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6520,7 +6550,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6535,7 +6565,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6550,7 +6580,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -6609,7 +6639,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6621,13 +6651,13 @@
         <v>1084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6639,10 +6669,10 @@
         <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6651,13 +6681,13 @@
         <v>2937</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,10 +6702,10 @@
         <v>183985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -6687,13 +6717,13 @@
         <v>223072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
@@ -6702,13 +6732,13 @@
         <v>407057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,7 +6794,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6776,13 +6806,13 @@
         <v>1352</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6791,13 +6821,13 @@
         <v>704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6806,13 +6836,13 @@
         <v>2055</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,10 +6857,10 @@
         <v>259425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -6842,10 +6872,10 @@
         <v>263504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -6857,10 +6887,10 @@
         <v>522930</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -6919,7 +6949,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6931,13 +6961,13 @@
         <v>7590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6946,13 +6976,13 @@
         <v>6205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -6961,13 +6991,13 @@
         <v>13796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +7012,13 @@
         <v>599659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>915</v>
@@ -6997,13 +7027,13 @@
         <v>775504</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
@@ -7012,13 +7042,13 @@
         <v>1375162</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7116,13 @@
         <v>6049</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7101,13 +7131,13 @@
         <v>5731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -7119,10 +7149,10 @@
         <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7167,13 @@
         <v>828236</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1032</v>
@@ -7152,13 +7182,13 @@
         <v>846338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1770</v>
@@ -7167,13 +7197,13 @@
         <v>1674574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7271,13 @@
         <v>16076</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -7256,13 +7286,13 @@
         <v>15267</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -7271,13 +7301,13 @@
         <v>31343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7322,13 @@
         <v>3261062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>5195</v>
@@ -7307,13 +7337,13 @@
         <v>3701581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M29" s="7">
         <v>8433</v>
@@ -7322,13 +7352,13 @@
         <v>6962643</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,7 +7414,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1CEB4C-B03D-4CE4-BDEF-41FEC6A7EEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{068E3EA7-7249-42A8-9685-E91743C40C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{425707BF-19F6-4E1F-AD73-BAA223BA6CE4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E738F04-FEC0-43F8-90A3-DA090AA0B5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="296">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>3,13%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>96,59%</t>
+    <t>96,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,10 +110,10 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -170,7 +170,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,7%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -185,7 +185,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -194,733 +194,739 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
     <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE2DC42-96DE-4AB9-BE9A-9FB20FB86D53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6BFCB5-A911-4C4C-A03D-F7758F343B6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2422,7 +2428,7 @@
         <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,7 +2476,7 @@
         <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>95</v>
@@ -2574,10 +2580,10 @@
         <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,10 +2598,10 @@
         <v>521887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>55</v>
@@ -2607,13 +2613,13 @@
         <v>586881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>1078</v>
@@ -2622,13 +2628,13 @@
         <v>1108767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2702,13 @@
         <v>8367</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -2711,13 +2717,13 @@
         <v>14810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -2726,13 +2732,13 @@
         <v>23177</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2753,13 @@
         <v>2446375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7">
         <v>2665</v>
@@ -2762,13 +2768,13 @@
         <v>2726127</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>5063</v>
@@ -2777,13 +2783,13 @@
         <v>5172502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,7 +2845,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A29D3C-C68F-43C7-A34A-2D1B8FD2E894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588DBFCD-2D33-4822-BC60-092CC3BC9AC3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,39 +2991,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,39 +3036,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,39 +3081,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3145,13 @@
         <v>1996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3154,13 +3160,13 @@
         <v>1996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3199,7 @@
         <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3205,10 +3211,10 @@
         <v>841161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3279,13 +3285,13 @@
         <v>3894</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3294,13 +3300,13 @@
         <v>2932</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3312,10 +3318,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3336,13 @@
         <v>289770</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -3345,13 +3351,13 @@
         <v>325820</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>587</v>
@@ -3363,10 +3369,10 @@
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3440,13 @@
         <v>5109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3452,10 +3458,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3467,10 +3473,10 @@
         <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3491,13 @@
         <v>558528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -3503,10 +3509,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3515,13 +3521,13 @@
         <v>1147646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3601,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3625,7 +3631,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3649,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -3667,13 +3673,13 @@
         <v>363</v>
       </c>
       <c r="N17" s="7">
-        <v>385747</v>
+        <v>385748</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -3718,7 +3724,7 @@
         <v>363</v>
       </c>
       <c r="N18" s="7">
-        <v>385747</v>
+        <v>385748</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -3744,13 +3750,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3759,13 +3765,13 @@
         <v>6058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3774,13 +3780,13 @@
         <v>7000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,10 +3801,10 @@
         <v>249030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -3810,13 +3816,13 @@
         <v>258772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -3825,10 +3831,10 @@
         <v>507803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>92</v>
@@ -3905,7 +3911,7 @@
         <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3914,13 +3920,13 @@
         <v>1909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3929,13 +3935,13 @@
         <v>5933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,10 +3956,10 @@
         <v>571066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>55</v>
@@ -3965,10 +3971,10 @@
         <v>623033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
@@ -3980,13 +3986,13 @@
         <v>1194100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4060,13 @@
         <v>4073</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4084,13 +4090,13 @@
         <v>7075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4111,13 @@
         <v>629832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -4120,13 +4126,13 @@
         <v>699292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>1223</v>
@@ -4135,10 +4141,10 @@
         <v>1329124</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>44</v>
@@ -4212,10 +4218,10 @@
         <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -4224,13 +4230,13 @@
         <v>18832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -4239,13 +4245,13 @@
         <v>36875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,10 +4269,10 @@
         <v>54</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>2894</v>
@@ -4275,13 +4281,13 @@
         <v>3124556</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>5614</v>
@@ -4290,13 +4296,13 @@
         <v>6021172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4358,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3631A57E-91D6-4A26-938A-BCA5308A991F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A0D1B-6CBF-492B-8BF6-AB6020A09094}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,13 +4506,13 @@
         <v>2058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4521,7 +4527,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4530,13 +4536,13 @@
         <v>2058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,10 +4557,10 @@
         <v>243160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4569,7 +4575,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4581,10 +4587,10 @@
         <v>489493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4655,13 +4661,13 @@
         <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4676,7 +4682,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4685,13 +4691,13 @@
         <v>1152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,10 +4712,10 @@
         <v>362013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4724,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4736,10 +4742,10 @@
         <v>755340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4810,13 +4816,13 @@
         <v>913</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4825,13 +4831,13 @@
         <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4843,10 +4849,10 @@
         <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,10 +4867,10 @@
         <v>289594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4876,10 +4882,10 @@
         <v>305399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4894,10 +4900,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4977,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4986,7 +4992,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5019,7 +5025,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5034,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5126,7 +5132,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5141,7 +5147,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5156,7 +5162,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5180,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -5189,7 +5195,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5204,7 +5210,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -5296,7 +5302,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5311,7 +5317,7 @@
         <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,7 +5350,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5359,7 +5365,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5445,13 +5451,13 @@
         <v>3561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5460,13 +5466,13 @@
         <v>3561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5502,13 @@
         <v>483490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>844</v>
@@ -5511,13 +5517,13 @@
         <v>925797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5597,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5621,7 +5627,7 @@
         <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,7 +5645,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5669,7 +5675,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -5740,13 +5746,13 @@
         <v>4122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -5755,13 +5761,13 @@
         <v>5926</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5770,13 +5776,13 @@
         <v>10049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,16 +5794,16 @@
         <v>2526</v>
       </c>
       <c r="D29" s="7">
-        <v>2660211</v>
+        <v>2660212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>2722</v>
@@ -5806,13 +5812,13 @@
         <v>2861389</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>5248</v>
@@ -5821,10 +5827,10 @@
         <v>5521599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>254</v>
@@ -5839,7 +5845,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -5883,7 +5889,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5907,7 +5913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C1391A-2AA2-404C-9B9E-27C898939832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332005A1-B2A7-4BCD-929D-08D394ECEFAB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6037,7 +6043,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6085,7 +6091,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6222,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,7 +6246,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6252,10 +6258,10 @@
         <v>539935</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -6267,10 +6273,10 @@
         <v>1047439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -6362,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6371,13 +6377,13 @@
         <v>616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6416,7 @@
         <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -6422,10 +6428,10 @@
         <v>664963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -6517,7 +6523,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6565,7 +6571,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6651,7 +6657,7 @@
         <v>1084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -6669,7 +6675,7 @@
         <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>269</v>
@@ -6687,7 +6693,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,7 +6708,7 @@
         <v>183985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>271</v>
@@ -6717,13 +6723,13 @@
         <v>223072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
@@ -6735,7 +6741,7 @@
         <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>25</v>
@@ -6827,7 +6833,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6842,7 +6848,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +6863,7 @@
         <v>259425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>277</v>
@@ -6875,7 +6881,7 @@
         <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -6890,7 +6896,7 @@
         <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -6961,7 +6967,7 @@
         <v>7590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>37</v>
@@ -6976,10 +6982,10 @@
         <v>6205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>281</v>
@@ -6994,7 +7000,7 @@
         <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>283</v>
@@ -7012,7 +7018,7 @@
         <v>599659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>284</v>
@@ -7027,13 +7033,13 @@
         <v>775504</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
@@ -7048,7 +7054,7 @@
         <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7122,13 @@
         <v>6049</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7131,7 +7137,7 @@
         <v>5731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>63</v>
@@ -7149,7 +7155,7 @@
         <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>290</v>
@@ -7167,13 +7173,13 @@
         <v>828236</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>1032</v>
@@ -7182,7 +7188,7 @@
         <v>846338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>292</v>
@@ -7197,13 +7203,13 @@
         <v>1674574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7277,13 @@
         <v>16076</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -7286,7 +7292,7 @@
         <v>15267</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>63</v>
@@ -7301,13 +7307,13 @@
         <v>31343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7328,13 @@
         <v>3261062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>5195</v>
@@ -7337,7 +7343,7 @@
         <v>3701581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>267</v>
@@ -7352,13 +7358,13 @@
         <v>6962643</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,7 +7420,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068E3EA7-7249-42A8-9685-E91743C40C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{115311A5-61F9-4A84-9823-FA0C567EE7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E738F04-FEC0-43F8-90A3-DA090AA0B5A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4ECBDE7-05A9-468C-9B57-D473E1864862}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="284">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,01%</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>96,87%</t>
+    <t>96,42%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,10 +110,10 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -155,778 +155,742 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>1,94%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6BFCB5-A911-4C4C-A03D-F7758F343B6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD53352-F839-435B-A017-9B5DA9828DBD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1808,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -1838,10 +1802,10 @@
         <v>287659</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1853,10 +1817,10 @@
         <v>524196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -1915,7 +1879,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1927,13 +1891,13 @@
         <v>952</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1948,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1957,13 +1921,13 @@
         <v>952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,10 +1942,10 @@
         <v>266579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1996,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2008,10 +1972,10 @@
         <v>566113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -2070,7 +2034,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2082,13 +2046,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2097,13 +2061,13 @@
         <v>1843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2112,13 +2076,13 @@
         <v>2778</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,10 +2097,10 @@
         <v>169343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2148,10 +2112,10 @@
         <v>172063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2163,13 +2127,13 @@
         <v>341406</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,7 +2189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2243,7 +2207,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2252,13 +2216,13 @@
         <v>1187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2267,13 +2231,13 @@
         <v>1187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2303,10 +2267,10 @@
         <v>203301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -2318,10 +2282,10 @@
         <v>392571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -2380,7 +2344,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2392,13 +2356,13 @@
         <v>885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2407,13 +2371,13 @@
         <v>3040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2422,13 +2386,13 @@
         <v>3925</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,10 +2407,10 @@
         <v>463440</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -2458,13 +2422,13 @@
         <v>536328</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M23" s="7">
         <v>974</v>
@@ -2473,10 +2437,10 @@
         <v>999767</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>95</v>
@@ -2550,7 +2514,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>98</v>
@@ -2604,7 +2568,7 @@
         <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H26" s="7">
         <v>560</v>
@@ -2705,10 +2669,10 @@
         <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -2717,10 +2681,10 @@
         <v>14810</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>117</v>
@@ -2735,10 +2699,10 @@
         <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2723,7 @@
         <v>121</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>2665</v>
@@ -2768,13 +2732,13 @@
         <v>2726127</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>5063</v>
@@ -2786,10 +2750,10 @@
         <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588DBFCD-2D33-4822-BC60-092CC3BC9AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318DA260-89F6-48D2-AD71-0B829589028F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3151,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3166,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3163,7 @@
         <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3214,7 +3178,7 @@
         <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3288,10 +3252,10 @@
         <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3300,13 +3264,13 @@
         <v>2932</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3315,13 +3279,13 @@
         <v>6826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3300,13 @@
         <v>289770</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -3351,13 +3315,13 @@
         <v>325820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>587</v>
@@ -3366,13 +3330,13 @@
         <v>615590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3392,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3440,13 +3404,13 @@
         <v>5109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3458,10 +3422,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3473,10 +3437,10 @@
         <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3455,13 @@
         <v>558528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -3509,10 +3473,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3524,10 +3488,10 @@
         <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3601,7 +3565,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3631,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3613,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -3673,13 +3637,13 @@
         <v>363</v>
       </c>
       <c r="N17" s="7">
-        <v>385748</v>
+        <v>385747</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -3724,7 +3688,7 @@
         <v>363</v>
       </c>
       <c r="N18" s="7">
-        <v>385748</v>
+        <v>385747</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -3738,7 +3702,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3750,13 +3714,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3765,13 +3729,13 @@
         <v>6058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3780,13 +3744,13 @@
         <v>7000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,10 +3765,10 @@
         <v>249030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -3816,13 +3780,13 @@
         <v>258772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -3831,13 +3795,13 @@
         <v>507803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3908,10 +3872,10 @@
         <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3926,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3935,13 +3899,13 @@
         <v>5933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,10 +3923,10 @@
         <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -3974,7 +3938,7 @@
         <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
@@ -3986,13 +3950,13 @@
         <v>1194100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4024,13 @@
         <v>4073</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4075,13 +4039,13 @@
         <v>3002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4090,13 +4054,13 @@
         <v>7075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4075,13 @@
         <v>629832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -4126,13 +4090,13 @@
         <v>699292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>1223</v>
@@ -4141,13 +4105,13 @@
         <v>1329124</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4179,10 @@
         <v>18043</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -4230,13 +4194,13 @@
         <v>18832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -4245,13 +4209,13 @@
         <v>36875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4230,13 @@
         <v>2896615</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>2894</v>
@@ -4281,13 +4245,13 @@
         <v>3124556</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>5614</v>
@@ -4296,13 +4260,13 @@
         <v>6021172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A0D1B-6CBF-492B-8BF6-AB6020A09094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA933302-319D-4B5A-BE31-263A9FD34EBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +4470,13 @@
         <v>2058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4527,7 +4491,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4536,13 +4500,13 @@
         <v>2058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,10 +4521,10 @@
         <v>243160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4575,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4587,10 +4551,10 @@
         <v>489493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4661,13 +4625,13 @@
         <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4682,7 +4646,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4691,13 +4655,13 @@
         <v>1152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,10 +4676,10 @@
         <v>362013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4730,7 +4694,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4742,10 +4706,10 @@
         <v>755340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4822,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4831,13 +4795,13 @@
         <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4846,13 +4810,13 @@
         <v>3278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4828,13 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>289594</v>
+        <v>289593</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4882,10 +4846,10 @@
         <v>305399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4897,13 +4861,13 @@
         <v>594992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4879,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -4959,7 +4923,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,7 +4941,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4992,7 +4956,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5007,7 +4971,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5040,7 +5004,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5055,7 +5019,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5114,7 +5078,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,7 +5096,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5147,7 +5111,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5162,7 +5126,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5144,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -5195,7 +5159,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5210,7 +5174,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -5269,7 +5233,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5302,7 +5266,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5317,7 +5281,7 @@
         <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5299,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5350,7 +5314,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5365,7 +5329,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5424,7 +5388,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5415,13 @@
         <v>3561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5466,13 +5430,13 @@
         <v>3561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5466,13 @@
         <v>483490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>844</v>
@@ -5517,10 +5481,10 @@
         <v>925797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>95</v>
@@ -5612,7 +5576,7 @@
         <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5627,7 +5591,7 @@
         <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5618,13 @@
         <v>635</v>
       </c>
       <c r="I26" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -5675,7 +5639,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -5705,7 +5669,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -5746,13 +5710,13 @@
         <v>4122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -5761,13 +5725,13 @@
         <v>5926</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5776,13 +5740,13 @@
         <v>10049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5761,13 @@
         <v>2660212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>2722</v>
@@ -5812,28 +5776,28 @@
         <v>2861389</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>5248</v>
       </c>
       <c r="N29" s="7">
-        <v>5521599</v>
+        <v>5521600</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5839,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -5913,7 +5877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332005A1-B2A7-4BCD-929D-08D394ECEFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3651CE8-1A44-411C-B88B-46CEA99A3FF2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5930,7 +5894,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6043,7 +6007,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6058,7 +6022,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6091,7 +6055,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6106,7 +6070,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -6198,7 +6162,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6207,13 +6171,13 @@
         <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6222,13 +6186,13 @@
         <v>159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,7 +6210,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6258,10 +6222,10 @@
         <v>539935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -6273,10 +6237,10 @@
         <v>1047439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -6353,7 +6317,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6362,13 +6326,13 @@
         <v>616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6377,13 +6341,13 @@
         <v>616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,7 +6365,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -6413,10 +6377,10 @@
         <v>357630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -6428,10 +6392,10 @@
         <v>664963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -6490,7 +6454,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6508,7 +6472,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6523,7 +6487,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6556,7 +6520,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6571,7 +6535,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6586,7 +6550,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -6645,7 +6609,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6657,13 +6621,13 @@
         <v>1084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6675,10 +6639,10 @@
         <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6687,13 +6651,13 @@
         <v>2937</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,10 +6672,10 @@
         <v>183985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -6726,10 +6690,10 @@
         <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
@@ -6738,13 +6702,13 @@
         <v>407057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,7 +6764,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6812,13 +6776,13 @@
         <v>1352</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6827,13 +6791,13 @@
         <v>704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6842,13 +6806,13 @@
         <v>2055</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,10 +6827,10 @@
         <v>259425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -6878,10 +6842,10 @@
         <v>263504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -6893,10 +6857,10 @@
         <v>522930</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -6955,7 +6919,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6967,13 +6931,13 @@
         <v>7590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6982,13 +6946,13 @@
         <v>6205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -6997,13 +6961,13 @@
         <v>13796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +6982,13 @@
         <v>599659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>915</v>
@@ -7033,13 +6997,13 @@
         <v>775504</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
@@ -7048,13 +7012,13 @@
         <v>1375162</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7086,13 @@
         <v>6049</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7137,13 +7101,13 @@
         <v>5731</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -7155,10 +7119,10 @@
         <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7137,13 @@
         <v>828236</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="H26" s="7">
         <v>1032</v>
@@ -7188,13 +7152,13 @@
         <v>846338</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1770</v>
@@ -7206,10 +7170,10 @@
         <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7241,13 @@
         <v>16076</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -7292,13 +7256,13 @@
         <v>15267</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -7313,7 +7277,7 @@
         <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7292,13 @@
         <v>3261062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="H29" s="7">
         <v>5195</v>
@@ -7343,13 +7307,13 @@
         <v>3701581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M29" s="7">
         <v>8433</v>
@@ -7361,7 +7325,7 @@
         <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>109</v>

--- a/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{115311A5-61F9-4A84-9823-FA0C567EE7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2ADF96-D67A-424B-BE7E-356CEFC80957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4ECBDE7-05A9-468C-9B57-D473E1864862}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2D3EC0A7-5E00-46E9-A0CB-831F644AD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="299">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -428,7 +428,46 @@
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -485,412 +524,418 @@
     <t>99,53%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD53352-F839-435B-A017-9B5DA9828DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD0F93-5BD5-429F-B85A-BCE465AC647F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,7 +2878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318DA260-89F6-48D2-AD71-0B829589028F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB3389-3810-4586-93F8-48A85DBC0D90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,43 +2996,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1818</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2001</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3819</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,43 +3047,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="D5" s="7">
+        <v>248742</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="I5" s="7">
+        <v>247238</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>459</v>
+      </c>
+      <c r="N5" s="7">
+        <v>495981</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,43 +3098,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N6" s="7">
+        <v>499800</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3172,7 @@
         <v>1996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -3124,7 +3187,7 @@
         <v>1996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -3160,7 +3223,7 @@
         <v>434832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>92</v>
@@ -3175,7 +3238,7 @@
         <v>841161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>110</v>
@@ -3249,13 +3312,13 @@
         <v>3894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3264,13 +3327,13 @@
         <v>2932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3279,13 +3342,13 @@
         <v>6826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,10 +3363,10 @@
         <v>289770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>124</v>
@@ -3315,10 +3378,10 @@
         <v>325820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3330,13 +3393,13 @@
         <v>615590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3461,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>5109</v>
+        <v>3291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>935</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="7">
-        <v>2936</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
       <c r="N13" s="7">
-        <v>8045</v>
+        <v>4226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3512,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>526</v>
+        <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>558528</v>
+        <v>309786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>545</v>
+        <v>325</v>
       </c>
       <c r="I14" s="7">
-        <v>589118</v>
+        <v>341880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>1071</v>
+        <v>612</v>
       </c>
       <c r="N14" s="7">
-        <v>1147646</v>
+        <v>651665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,10 +3563,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -3515,10 +3578,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>592054</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3530,10 +3593,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>1078</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1155691</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -3565,7 +3628,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3595,7 +3658,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3676,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -3643,7 +3706,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -3714,13 +3777,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3729,13 +3792,13 @@
         <v>6058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3744,13 +3807,13 @@
         <v>7000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,10 +3828,10 @@
         <v>249030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -3780,13 +3843,13 @@
         <v>258772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -3795,10 +3858,10 @@
         <v>507803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>41</v>
@@ -3872,10 +3935,10 @@
         <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3899,13 +3962,13 @@
         <v>5933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,10 +3986,10 @@
         <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -3950,10 +4013,10 @@
         <v>1194100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>53</v>
@@ -4024,10 +4087,10 @@
         <v>4073</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>104</v>
@@ -4039,13 +4102,13 @@
         <v>3002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4054,13 +4117,13 @@
         <v>7075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4138,13 @@
         <v>629832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -4090,13 +4153,13 @@
         <v>699292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>1223</v>
@@ -4105,10 +4168,10 @@
         <v>1329124</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>34</v>
@@ -4182,7 +4245,7 @@
         <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -4194,10 +4257,10 @@
         <v>18832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>99</v>
@@ -4209,13 +4272,13 @@
         <v>36875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4290,7 @@
         <v>2720</v>
       </c>
       <c r="D29" s="7">
-        <v>2896615</v>
+        <v>2896616</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>52</v>
@@ -4236,22 +4299,22 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>2894</v>
       </c>
       <c r="I29" s="7">
-        <v>3124556</v>
+        <v>3124557</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>107</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M29" s="7">
         <v>5614</v>
@@ -4260,10 +4323,10 @@
         <v>6021172</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>112</v>
@@ -4278,7 +4341,7 @@
         <v>2736</v>
       </c>
       <c r="D30" s="7">
-        <v>2914658</v>
+        <v>2914659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -4293,7 +4356,7 @@
         <v>2912</v>
       </c>
       <c r="I30" s="7">
-        <v>3143388</v>
+        <v>3143389</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -4346,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA933302-319D-4B5A-BE31-263A9FD34EBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC26EF9-CF53-429D-AB42-852253F8F7C7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4363,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4491,7 +4554,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4506,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4587,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4539,7 +4602,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4554,7 +4617,7 @@
         <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4625,13 +4688,13 @@
         <v>1152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4646,7 +4709,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4655,13 +4718,13 @@
         <v>1152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,10 +4739,10 @@
         <v>362013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4694,7 +4757,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4706,10 +4769,10 @@
         <v>755340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4786,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4795,13 +4858,13 @@
         <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4813,7 +4876,7 @@
         <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>104</v>
@@ -4828,13 +4891,13 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>289593</v>
+        <v>289594</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4846,10 +4909,10 @@
         <v>305399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4867,7 +4930,7 @@
         <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4942,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -4941,7 +5004,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4956,7 +5019,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4989,7 +5052,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5004,7 +5067,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5096,7 +5159,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5111,7 +5174,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5126,7 +5189,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5207,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -5159,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5174,7 +5237,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -5266,7 +5329,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5281,7 +5344,7 @@
         <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,7 +5377,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5329,7 +5392,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5415,10 +5478,10 @@
         <v>3561</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>62</v>
@@ -5430,13 +5493,13 @@
         <v>3561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5529,13 @@
         <v>483490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>844</v>
@@ -5481,10 +5544,10 @@
         <v>925797</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>95</v>
@@ -5591,7 +5654,7 @@
         <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,7 +5681,7 @@
         <v>635</v>
       </c>
       <c r="I26" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>21</v>
@@ -5639,7 +5702,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -5669,7 +5732,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -5710,10 +5773,10 @@
         <v>4122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
@@ -5725,13 +5788,13 @@
         <v>5926</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5740,10 +5803,10 @@
         <v>10049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>113</v>
@@ -5758,16 +5821,16 @@
         <v>2526</v>
       </c>
       <c r="D29" s="7">
-        <v>2660212</v>
+        <v>2660211</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>2722</v>
@@ -5776,28 +5839,28 @@
         <v>2861389</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>5248</v>
       </c>
       <c r="N29" s="7">
-        <v>5521600</v>
+        <v>5521599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5872,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -5839,7 +5902,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -5877,7 +5940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3651CE8-1A44-411C-B88B-46CEA99A3FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6304DBCC-586A-469C-841E-473B2983C998}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5894,7 +5957,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6007,7 +6070,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6049,13 +6112,13 @@
         <v>317</v>
       </c>
       <c r="D5" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6064,7 +6127,7 @@
         <v>531</v>
       </c>
       <c r="I5" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -6079,7 +6142,7 @@
         <v>848</v>
       </c>
       <c r="N5" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
@@ -6100,7 +6163,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -6115,7 +6178,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -6130,7 +6193,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -6162,37 +6225,37 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6267,13 @@
         <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6219,13 +6282,13 @@
         <v>695</v>
       </c>
       <c r="I8" s="7">
-        <v>539935</v>
+        <v>501386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -6234,13 +6297,13 @@
         <v>1066</v>
       </c>
       <c r="N8" s="7">
-        <v>1047439</v>
+        <v>1008370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -6255,7 +6318,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -6270,7 +6333,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -6285,7 +6348,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -6323,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>616</v>
+        <v>568</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>48</v>
@@ -6332,22 +6395,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>616</v>
+        <v>568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,7 +6422,7 @@
         <v>345</v>
       </c>
       <c r="D11" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
@@ -6374,13 +6437,13 @@
         <v>516</v>
       </c>
       <c r="I11" s="7">
-        <v>357630</v>
+        <v>334707</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -6389,13 +6452,13 @@
         <v>861</v>
       </c>
       <c r="N11" s="7">
-        <v>664963</v>
+        <v>635899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -6410,7 +6473,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -6425,7 +6488,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -6440,7 +6503,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -6472,7 +6535,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6487,7 +6550,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6514,13 +6577,13 @@
         <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6529,13 +6592,13 @@
         <v>594</v>
       </c>
       <c r="I14" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -6544,7 +6607,7 @@
         <v>882</v>
       </c>
       <c r="N14" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>21</v>
@@ -6565,7 +6628,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -6580,7 +6643,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -6595,7 +6658,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -6618,46 +6681,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1084</v>
+        <v>989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1853</v>
+        <v>1702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>2937</v>
+        <v>2691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6732,13 @@
         <v>261</v>
       </c>
       <c r="D17" s="7">
-        <v>183985</v>
+        <v>167440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -6684,31 +6747,31 @@
         <v>473</v>
       </c>
       <c r="I17" s="7">
-        <v>223072</v>
+        <v>200590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
       </c>
       <c r="N17" s="7">
-        <v>407057</v>
+        <v>368030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,7 +6783,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -6735,7 +6798,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -6750,7 +6813,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -6773,46 +6836,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1352</v>
+        <v>1454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>2055</v>
+        <v>2111</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6887,13 @@
         <v>343</v>
       </c>
       <c r="D20" s="7">
-        <v>259425</v>
+        <v>252278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -6839,13 +6902,13 @@
         <v>439</v>
       </c>
       <c r="I20" s="7">
-        <v>263504</v>
+        <v>245693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -6854,13 +6917,13 @@
         <v>782</v>
       </c>
       <c r="N20" s="7">
-        <v>522930</v>
+        <v>497971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -6875,7 +6938,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6890,7 +6953,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -6905,7 +6968,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6928,46 +6991,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>7590</v>
+        <v>7426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>6205</v>
+        <v>5742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
       </c>
       <c r="N22" s="7">
-        <v>13796</v>
+        <v>13169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,46 +7042,46 @@
         <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>599659</v>
+        <v>592269</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>915</v>
       </c>
       <c r="I23" s="7">
-        <v>775504</v>
+        <v>822623</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>1490</v>
       </c>
       <c r="N23" s="7">
-        <v>1375162</v>
+        <v>1414891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,7 +7093,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -7045,7 +7108,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -7060,7 +7123,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -7083,46 +7146,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>6049</v>
+        <v>5116</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>5731</v>
+        <v>4697</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>11780</v>
+        <v>9813</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,46 +7197,46 @@
         <v>738</v>
       </c>
       <c r="D26" s="7">
-        <v>828236</v>
+        <v>903523</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>1032</v>
       </c>
       <c r="I26" s="7">
-        <v>846338</v>
+        <v>699227</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>1770</v>
       </c>
       <c r="N26" s="7">
-        <v>1674574</v>
+        <v>1602750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,7 +7248,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -7200,7 +7263,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -7215,7 +7278,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -7238,46 +7301,46 @@
         <v>15</v>
       </c>
       <c r="D28" s="7">
-        <v>16076</v>
+        <v>14985</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
       </c>
       <c r="I28" s="7">
-        <v>15267</v>
+        <v>13529</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
       </c>
       <c r="N28" s="7">
-        <v>31343</v>
+        <v>28514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,46 +7352,46 @@
         <v>3238</v>
       </c>
       <c r="D29" s="7">
-        <v>3261062</v>
+        <v>3339236</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="H29" s="7">
         <v>5195</v>
       </c>
       <c r="I29" s="7">
-        <v>3701581</v>
+        <v>3565298</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>8433</v>
       </c>
       <c r="N29" s="7">
-        <v>6962643</v>
+        <v>6904534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,7 +7403,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3277138</v>
+        <v>3354221</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -7355,7 +7418,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -7370,7 +7433,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993986</v>
+        <v>6933048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
